--- a/Code/Results/Cases/Case_2_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_bus/vm_pu.xlsx
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057851</v>
+        <v>0.9571825583057852</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769893</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702914</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.970642461629057</v>
+        <v>0.9706424616290569</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922296</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9660706434537709</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9435740419925934</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9576541208834083</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689356</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411972</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088965216</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764519</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.933278105073729</v>
+        <v>0.9332781050737294</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782936</v>
+        <v>0.9494987508782939</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684966</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816591</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981064</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572514</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963313</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
+        <v>0.9475391330285313</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442547</v>
+        <v>0.9533716596442546</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9463835801718017</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.9598754494005832</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_bus/vm_pu.xlsx
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057852</v>
+        <v>0.9571825583057851</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769893</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702913</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290569</v>
+        <v>0.970642461629057</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922296</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537709</v>
+        <v>0.966070643453771</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925934</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834083</v>
+        <v>0.9576541208834081</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411972</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965214</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9490745509764514</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737294</v>
+        <v>0.933278105073729</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9494987508782936</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
+        <v>0.9546352493816592</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9488714019981065</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572514</v>
+        <v>0.9460223821572517</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963313</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285313</v>
+        <v>0.9475391330285317</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442546</v>
+        <v>0.9533716596442547</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.959875449400583</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_bus/vm_pu.xlsx
@@ -417,336 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9972868040296177</v>
+      </c>
+      <c r="D2">
+        <v>1.018428752925773</v>
+      </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
+      <c r="F2">
+        <v>1.01825384044194</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.042297248180727</v>
+      </c>
+      <c r="J2">
+        <v>1.019548970274967</v>
+      </c>
+      <c r="K2">
+        <v>1.029637180098604</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
+      <c r="M2">
+        <v>1.029464595446052</v>
+      </c>
+      <c r="N2">
+        <v>1.020996846756659</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.001917618872316</v>
+      </c>
+      <c r="D3">
+        <v>1.021944243274562</v>
+      </c>
       <c r="E3">
-        <v>0.9571825583057852</v>
+        <v>0.9571825583057848</v>
+      </c>
+      <c r="F3">
+        <v>1.022509800707087</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.043314397587961</v>
+      </c>
+      <c r="J3">
+        <v>1.022356143821493</v>
+      </c>
+      <c r="K3">
+        <v>1.032303836373212</v>
+      </c>
       <c r="L3">
-        <v>0.9683942856474069</v>
+        <v>0.9683942856474066</v>
+      </c>
+      <c r="M3">
+        <v>1.032862543123525</v>
+      </c>
+      <c r="N3">
+        <v>1.023808006811608</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.004851114783761</v>
+      </c>
+      <c r="D4">
+        <v>1.024173223619862</v>
+      </c>
       <c r="E4">
-        <v>0.9600238894088614</v>
+        <v>0.9600238894088612</v>
+      </c>
+      <c r="F4">
+        <v>1.025210983087666</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.043947667901625</v>
+      </c>
+      <c r="J4">
+        <v>1.024131537351584</v>
+      </c>
+      <c r="K4">
+        <v>1.033988397100505</v>
+      </c>
       <c r="L4">
-        <v>0.9706300002952758</v>
+        <v>0.9706300002952756</v>
+      </c>
+      <c r="M4">
+        <v>1.035014365356413</v>
+      </c>
+      <c r="N4">
+        <v>1.025585921604153</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.006069834930697</v>
+      </c>
+      <c r="D5">
+        <v>1.025099675167514</v>
+      </c>
       <c r="E5">
-        <v>0.9612062874769893</v>
+        <v>0.9612062874769891</v>
+      </c>
+      <c r="F5">
+        <v>1.026334375327169</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.044208059885525</v>
+      </c>
+      <c r="J5">
+        <v>1.02486839845346</v>
+      </c>
+      <c r="K5">
+        <v>1.034687070908027</v>
+      </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
+      </c>
+      <c r="M5">
+        <v>1.035908125606982</v>
+      </c>
+      <c r="N5">
+        <v>1.026323829133313</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.006273627290793</v>
+      </c>
+      <c r="D6">
+        <v>1.025254617955346</v>
+      </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
+      <c r="F6">
+        <v>1.026522295512119</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.04425144218771</v>
+      </c>
+      <c r="J6">
+        <v>1.024991571456876</v>
+      </c>
+      <c r="K6">
+        <v>1.034803831380486</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
+      </c>
+      <c r="M6">
+        <v>1.036057564745176</v>
+      </c>
+      <c r="N6">
+        <v>1.026447177056522</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.004867455735278</v>
+      </c>
+      <c r="D7">
+        <v>1.024185644159952</v>
+      </c>
       <c r="E7">
-        <v>0.9600397355691358</v>
+        <v>0.9600397355691357</v>
+      </c>
+      <c r="F7">
+        <v>1.025226041228744</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.043951170038292</v>
+      </c>
+      <c r="J7">
+        <v>1.024141420311677</v>
+      </c>
+      <c r="K7">
+        <v>1.033997769834218</v>
+      </c>
       <c r="L7">
-        <v>0.9706424616290569</v>
+        <v>0.9706424616290568</v>
+      </c>
+      <c r="M7">
+        <v>1.03502635006013</v>
+      </c>
+      <c r="N7">
+        <v>1.025595818599182</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9988651838109985</v>
+      </c>
+      <c r="D8">
+        <v>1.019626522499702</v>
+      </c>
       <c r="E8">
-        <v>0.9542328392922296</v>
+        <v>0.9542328392922297</v>
+      </c>
+      <c r="F8">
+        <v>1.019703343891476</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.042646230137098</v>
+      </c>
+      <c r="J8">
+        <v>1.020506355963105</v>
+      </c>
+      <c r="K8">
+        <v>1.030547044149741</v>
+      </c>
       <c r="L8">
-        <v>0.9660706434537709</v>
+        <v>0.966070643453771</v>
+      </c>
+      <c r="M8">
+        <v>1.030622874564778</v>
+      </c>
+      <c r="N8">
+        <v>1.021955592042288</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9877800801709868</v>
+      </c>
+      <c r="D9">
+        <v>1.011225640357623</v>
+      </c>
       <c r="E9">
-        <v>0.9435740419925934</v>
+        <v>0.9435740419925933</v>
+      </c>
+      <c r="F9">
+        <v>1.009547322362229</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.040150146731845</v>
+      </c>
+      <c r="J9">
+        <v>1.013771859708612</v>
+      </c>
+      <c r="K9">
+        <v>1.024139177522651</v>
+      </c>
       <c r="L9">
-        <v>0.9576541208834083</v>
+        <v>0.9576541208834081</v>
+      </c>
+      <c r="M9">
+        <v>1.022487377021868</v>
+      </c>
+      <c r="N9">
+        <v>1.015211532030656</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.980009066052526</v>
+      </c>
+      <c r="D10">
+        <v>1.005353590535514</v>
+      </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547283</v>
+      </c>
+      <c r="F10">
+        <v>1.002460603722071</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.038344983898882</v>
+      </c>
+      <c r="J10">
+        <v>1.009038915866721</v>
+      </c>
+      <c r="K10">
+        <v>1.019626852369169</v>
+      </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
+      </c>
+      <c r="M10">
+        <v>1.016785572876392</v>
+      </c>
+      <c r="N10">
+        <v>1.010471866865633</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9765442301615969</v>
+      </c>
+      <c r="D11">
+        <v>1.002740568462919</v>
+      </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
+      </c>
+      <c r="F11">
+        <v>0.9993095584156435</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.03752768667807</v>
+      </c>
+      <c r="J11">
+        <v>1.006926433571386</v>
+      </c>
+      <c r="K11">
+        <v>1.017610986082909</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
+      </c>
+      <c r="M11">
+        <v>1.014244507210209</v>
+      </c>
+      <c r="N11">
+        <v>1.008356384603134</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9752413380948297</v>
+      </c>
+      <c r="D12">
+        <v>1.001758850448428</v>
+      </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
+      </c>
+      <c r="F12">
+        <v>0.9981260451646997</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.03721854901302</v>
+      </c>
+      <c r="J12">
+        <v>1.006131790005351</v>
+      </c>
+      <c r="K12">
+        <v>1.016852431059676</v>
+      </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
+      </c>
+      <c r="M12">
+        <v>1.013289235470532</v>
+      </c>
+      <c r="N12">
+        <v>1.007560612552088</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9755215471916209</v>
+      </c>
+      <c r="D13">
+        <v>1.001969945011787</v>
+      </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
+      <c r="F13">
+        <v>0.9983805160188058</v>
+      </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.037285114953184</v>
+      </c>
+      <c r="J13">
+        <v>1.006302703431789</v>
+      </c>
+      <c r="K13">
+        <v>1.017015593631913</v>
+      </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
+      </c>
+      <c r="M13">
+        <v>1.013494670248973</v>
+      </c>
+      <c r="N13">
+        <v>1.007731768695196</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9764368623505787</v>
+      </c>
+      <c r="D14">
+        <v>1.002659649620762</v>
+      </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
+      </c>
+      <c r="F14">
+        <v>0.9992119997123771</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.03750224784019</v>
+      </c>
+      <c r="J14">
+        <v>1.006860954538814</v>
+      </c>
+      <c r="K14">
+        <v>1.01754848580948</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
+      </c>
+      <c r="M14">
+        <v>1.014165780272672</v>
+      </c>
+      <c r="N14">
+        <v>1.008290812582825</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9769986840722585</v>
+      </c>
+      <c r="D15">
+        <v>1.003083108053326</v>
+      </c>
       <c r="E15">
-        <v>0.9332781050737294</v>
+        <v>0.9332781050737295</v>
+      </c>
+      <c r="F15">
+        <v>0.9997225503288738</v>
       </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.037635287945737</v>
+      </c>
+      <c r="J15">
+        <v>1.007203574435949</v>
+      </c>
+      <c r="K15">
+        <v>1.017875509058164</v>
       </c>
       <c r="L15">
         <v>0.9494987508782939</v>
+      </c>
+      <c r="M15">
+        <v>1.01457774412548</v>
+      </c>
+      <c r="N15">
+        <v>1.008633919039513</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9802368363486789</v>
+      </c>
+      <c r="D16">
+        <v>1.005525479144443</v>
+      </c>
       <c r="E16">
         <v>0.9363637346017259</v>
       </c>
+      <c r="F16">
+        <v>1.002667933523426</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.038398457289388</v>
+      </c>
+      <c r="J16">
+        <v>1.009177743720345</v>
+      </c>
+      <c r="K16">
+        <v>1.019759294187577</v>
+      </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9519451749175716</v>
+      </c>
+      <c r="M16">
+        <v>1.01695264746185</v>
+      </c>
+      <c r="N16">
+        <v>1.010610891870733</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9822406847936939</v>
+      </c>
+      <c r="D17">
+        <v>1.007038293124906</v>
+      </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.938276015685567</v>
+      </c>
+      <c r="F17">
+        <v>1.004492950274517</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.038867491355263</v>
+      </c>
+      <c r="J17">
+        <v>1.01039885927543</v>
+      </c>
+      <c r="K17">
+        <v>1.020924030810718</v>
+      </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.9534603602068051</v>
+      </c>
+      <c r="M17">
+        <v>1.01842265775159</v>
+      </c>
+      <c r="N17">
+        <v>1.01183374154997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9833999164336431</v>
+      </c>
+      <c r="D18">
+        <v>1.007913939921029</v>
+      </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9393832867215687</v>
+      </c>
+      <c r="F18">
+        <v>1.005549545465924</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.0391376456428</v>
+      </c>
+      <c r="J18">
+        <v>1.011105063731393</v>
+      </c>
+      <c r="K18">
+        <v>1.021597452526027</v>
+      </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.954337351586573</v>
+      </c>
+      <c r="M18">
+        <v>1.019273169189838</v>
+      </c>
+      <c r="N18">
+        <v>1.012540948897264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9837935854204047</v>
+      </c>
+      <c r="D19">
+        <v>1.008211383679149</v>
+      </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684969</v>
+      </c>
+      <c r="F19">
+        <v>1.005908496178629</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.039229186144044</v>
+      </c>
+      <c r="J19">
+        <v>1.011344849209431</v>
+      </c>
+      <c r="K19">
+        <v>1.021826076162759</v>
+      </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9546352493816594</v>
+      </c>
+      <c r="M19">
+        <v>1.019562014315945</v>
+      </c>
+      <c r="N19">
+        <v>1.012781074898185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9820266878226076</v>
+      </c>
+      <c r="D20">
+        <v>1.006876684748495</v>
+      </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
+      </c>
+      <c r="F20">
+        <v>1.004297965838225</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.038817524145645</v>
+      </c>
+      <c r="J20">
+        <v>1.010268474543541</v>
+      </c>
+      <c r="K20">
+        <v>1.020799684176939</v>
+      </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.9532985019057443</v>
+      </c>
+      <c r="M20">
+        <v>1.018265659371611</v>
+      </c>
+      <c r="N20">
+        <v>1.011703171656806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9761677711359935</v>
+      </c>
+      <c r="D21">
+        <v>1.002456860535888</v>
+      </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
+      <c r="F21">
+        <v>0.9989675151862207</v>
+      </c>
       <c r="G21">
         <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.037438462709043</v>
+      </c>
+      <c r="J21">
+        <v>1.006696842984776</v>
+      </c>
+      <c r="K21">
+        <v>1.017391835958809</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>1.013968474746122</v>
+      </c>
+      <c r="N21">
+        <v>1.008126467971556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9723915709458333</v>
+      </c>
+      <c r="D22">
+        <v>0.9996132721907168</v>
+      </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
+      <c r="F22">
+        <v>0.9955400255688556</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.036539129858039</v>
+      </c>
+      <c r="J22">
+        <v>1.004393239769965</v>
+      </c>
+      <c r="K22">
+        <v>1.015192394129386</v>
+      </c>
       <c r="L22">
-        <v>0.9460223821572514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9460223821572515</v>
+      </c>
+      <c r="M22">
+        <v>1.011200356225702</v>
+      </c>
+      <c r="N22">
+        <v>1.005819593375953</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9744024836722456</v>
+      </c>
+      <c r="D23">
+        <v>1.001127036435531</v>
+      </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963315</v>
+      </c>
+      <c r="F23">
+        <v>0.9973644516138861</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.037019012384568</v>
+      </c>
+      <c r="J23">
+        <v>1.005620094129548</v>
+      </c>
+      <c r="K23">
+        <v>1.016363904855754</v>
+      </c>
       <c r="L23">
-        <v>0.9475391330285313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9475391330285319</v>
+      </c>
+      <c r="M23">
+        <v>1.012674273914867</v>
+      </c>
+      <c r="N23">
+        <v>1.007048190009449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9821234133805364</v>
+      </c>
+      <c r="D24">
+        <v>1.006949729443187</v>
+      </c>
       <c r="E24">
-        <v>0.9381640424011831</v>
+        <v>0.9381640424011829</v>
+      </c>
+      <c r="F24">
+        <v>1.004386095294516</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.038840112747471</v>
+      </c>
+      <c r="J24">
+        <v>1.01032740845659</v>
+      </c>
+      <c r="K24">
+        <v>1.020855889420525</v>
+      </c>
       <c r="L24">
-        <v>0.9533716596442546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9533716596442545</v>
+      </c>
+      <c r="M24">
+        <v>1.018336621527297</v>
+      </c>
+      <c r="N24">
+        <v>1.011762189262772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9907099531485908</v>
+      </c>
+      <c r="D25">
+        <v>1.013443412548637</v>
+      </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718012</v>
+      </c>
+      <c r="F25">
+        <v>1.012226223510515</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.040819624117951</v>
+      </c>
+      <c r="J25">
+        <v>1.01555406086654</v>
+      </c>
+      <c r="K25">
+        <v>1.025836560709562</v>
+      </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.9598754494005829</v>
+      </c>
+      <c r="M25">
+        <v>1.024637662222679</v>
+      </c>
+      <c r="N25">
+        <v>1.016996264118649</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9972868040296177</v>
+        <v>1.028965631712938</v>
       </c>
       <c r="D2">
-        <v>1.018428752925773</v>
+        <v>1.037227525576902</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.01825384044194</v>
+        <v>1.044210805610972</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042297248180727</v>
+        <v>1.032231077692212</v>
       </c>
       <c r="J2">
-        <v>1.019548970274967</v>
+        <v>1.034115024638117</v>
       </c>
       <c r="K2">
-        <v>1.029637180098604</v>
+        <v>1.040019011186655</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.029464595446052</v>
+        <v>1.04698249520968</v>
       </c>
       <c r="N2">
-        <v>1.020996846756659</v>
+        <v>1.035583586587775</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001917618872316</v>
+        <v>1.029940688537354</v>
       </c>
       <c r="D3">
-        <v>1.021944243274562</v>
+        <v>1.037987402974559</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.022509800707087</v>
+        <v>1.04516135259206</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043314397587961</v>
+        <v>1.032379384310972</v>
       </c>
       <c r="J3">
-        <v>1.022356143821493</v>
+        <v>1.034730782812199</v>
       </c>
       <c r="K3">
-        <v>1.032303836373212</v>
+        <v>1.040588785002228</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.032862543123525</v>
+        <v>1.047743870258755</v>
       </c>
       <c r="N3">
-        <v>1.023808006811608</v>
+        <v>1.036200219209072</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004851114783761</v>
+        <v>1.030571906238008</v>
       </c>
       <c r="D4">
-        <v>1.024173223619862</v>
+        <v>1.038479156597969</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.025210983087666</v>
+        <v>1.045776967652096</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043947667901625</v>
+        <v>1.032473993568972</v>
       </c>
       <c r="J4">
-        <v>1.024131537351584</v>
+        <v>1.035128920655808</v>
       </c>
       <c r="K4">
-        <v>1.033988397100505</v>
+        <v>1.04095686788792</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.035014365356413</v>
+        <v>1.048236456269194</v>
       </c>
       <c r="N4">
-        <v>1.025585921604153</v>
+        <v>1.036598922454086</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006069834930697</v>
+        <v>1.030837339138631</v>
       </c>
       <c r="D5">
-        <v>1.025099675167514</v>
+        <v>1.038685903502808</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.026334375327169</v>
+        <v>1.04603590218602</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044208059885525</v>
+        <v>1.03251344243277</v>
       </c>
       <c r="J5">
-        <v>1.02486839845346</v>
+        <v>1.03529622549898</v>
       </c>
       <c r="K5">
-        <v>1.034687070908027</v>
+        <v>1.041111465669839</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.035908125606982</v>
+        <v>1.048443520577824</v>
       </c>
       <c r="N5">
-        <v>1.026323829133313</v>
+        <v>1.036766464889325</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006273627290793</v>
+        <v>1.030881910517546</v>
       </c>
       <c r="D6">
-        <v>1.025254617955346</v>
+        <v>1.038720617985422</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.026522295512119</v>
+        <v>1.046079386021748</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04425144218771</v>
+        <v>1.032520047006539</v>
       </c>
       <c r="J6">
-        <v>1.024991571456876</v>
+        <v>1.035324312456273</v>
       </c>
       <c r="K6">
-        <v>1.034803831380486</v>
+        <v>1.041137414832086</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.036057564745176</v>
+        <v>1.0484782864519</v>
       </c>
       <c r="N6">
-        <v>1.026447177056522</v>
+        <v>1.03679459173332</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004867455735278</v>
+        <v>1.030575452695149</v>
       </c>
       <c r="D7">
-        <v>1.024185644159952</v>
+        <v>1.038481919107974</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.025226041228744</v>
+        <v>1.04578042703877</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043951170038292</v>
+        <v>1.032474521963717</v>
       </c>
       <c r="J7">
-        <v>1.024141420311677</v>
+        <v>1.035131156476375</v>
       </c>
       <c r="K7">
-        <v>1.033997769834218</v>
+        <v>1.040958934199027</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.03502635006013</v>
+        <v>1.048239223147946</v>
       </c>
       <c r="N7">
-        <v>1.025595818599182</v>
+        <v>1.036601161449775</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9988651838109985</v>
+        <v>1.029295096157606</v>
       </c>
       <c r="D8">
-        <v>1.019626522499702</v>
+        <v>1.037484316118142</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.019703343891476</v>
+        <v>1.044531933346655</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042646230137098</v>
+        <v>1.032281478896736</v>
       </c>
       <c r="J8">
-        <v>1.020506355963105</v>
+        <v>1.03432318442408</v>
       </c>
       <c r="K8">
-        <v>1.030547044149741</v>
+        <v>1.040211692379605</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.030622874564778</v>
+        <v>1.047239820307927</v>
       </c>
       <c r="N8">
-        <v>1.021955592042288</v>
+        <v>1.03579204198449</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9877800801709868</v>
+        <v>1.02704119834437</v>
       </c>
       <c r="D9">
-        <v>1.011225640357623</v>
+        <v>1.035726940582027</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.009547322362229</v>
+        <v>1.042336171814873</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040150146731845</v>
+        <v>1.031930954979587</v>
       </c>
       <c r="J9">
-        <v>1.013771859708612</v>
+        <v>1.032897178665435</v>
       </c>
       <c r="K9">
-        <v>1.024139177522651</v>
+        <v>1.038890409372019</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.022487377021868</v>
+        <v>1.045478217784946</v>
       </c>
       <c r="N9">
-        <v>1.015211532030656</v>
+        <v>1.034364011134102</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.980009066052526</v>
+        <v>1.025540150082755</v>
       </c>
       <c r="D10">
-        <v>1.005353590535514</v>
+        <v>1.034555781838992</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.002460603722071</v>
+        <v>1.040875249968479</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038344983898882</v>
+        <v>1.031690336014876</v>
       </c>
       <c r="J10">
-        <v>1.009038915866721</v>
+        <v>1.031945035105704</v>
       </c>
       <c r="K10">
-        <v>1.019626852369169</v>
+        <v>1.038006548382924</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.016785572876392</v>
+        <v>1.044303519805536</v>
       </c>
       <c r="N10">
-        <v>1.010471866865633</v>
+        <v>1.033410515421304</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9765442301615969</v>
+        <v>1.024890554008044</v>
       </c>
       <c r="D11">
-        <v>1.002740568462919</v>
+        <v>1.034048772305087</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9993095584156435</v>
+        <v>1.040243360491691</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03752768667807</v>
+        <v>1.031584505739946</v>
       </c>
       <c r="J11">
-        <v>1.006926433571386</v>
+        <v>1.031532405849673</v>
       </c>
       <c r="K11">
-        <v>1.017610986082909</v>
+        <v>1.037623124490733</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.014244507210209</v>
+        <v>1.043794804158838</v>
       </c>
       <c r="N11">
-        <v>1.008356384603134</v>
+        <v>1.0329973001844</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9752413380948297</v>
+        <v>1.024649320807748</v>
       </c>
       <c r="D12">
-        <v>1.001758850448428</v>
+        <v>1.033860464018</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9981260451646997</v>
+        <v>1.040008754699573</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03721854901302</v>
+        <v>1.031544949586817</v>
       </c>
       <c r="J12">
-        <v>1.006131790005351</v>
+        <v>1.031379085825585</v>
       </c>
       <c r="K12">
-        <v>1.016852431059676</v>
+        <v>1.037480598481516</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.013289235470532</v>
+        <v>1.043605835851357</v>
       </c>
       <c r="N12">
-        <v>1.007560612552088</v>
+        <v>1.032843762428292</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9755215471916209</v>
+        <v>1.024701063619933</v>
       </c>
       <c r="D13">
-        <v>1.001969945011787</v>
+        <v>1.033900855969242</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9983805160188058</v>
+        <v>1.040059073620852</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037285114953184</v>
+        <v>1.031553445644755</v>
       </c>
       <c r="J13">
-        <v>1.006302703431789</v>
+        <v>1.031411975795112</v>
       </c>
       <c r="K13">
-        <v>1.017015593631913</v>
+        <v>1.037511175546644</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.013494670248973</v>
+        <v>1.043646370572475</v>
       </c>
       <c r="N13">
-        <v>1.007731768695196</v>
+        <v>1.032876699105348</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9764368623505787</v>
+        <v>1.024870612457424</v>
       </c>
       <c r="D14">
-        <v>1.002659649620762</v>
+        <v>1.034033206317291</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9992119997123771</v>
+        <v>1.040223965733483</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03750224784019</v>
+        <v>1.031581241033476</v>
       </c>
       <c r="J14">
-        <v>1.006860954538814</v>
+        <v>1.031519733408212</v>
       </c>
       <c r="K14">
-        <v>1.01754848580948</v>
+        <v>1.037611345389875</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.014165780272672</v>
+        <v>1.043779184151168</v>
       </c>
       <c r="N14">
-        <v>1.008290812582825</v>
+        <v>1.032984609746618</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9769986840722585</v>
+        <v>1.024975084487258</v>
       </c>
       <c r="D15">
-        <v>1.003083108053326</v>
+        <v>1.034114754104023</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9997225503288738</v>
+        <v>1.04032557529553</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037635287945737</v>
+        <v>1.031598334094703</v>
       </c>
       <c r="J15">
-        <v>1.007203574435949</v>
+        <v>1.031586119672427</v>
       </c>
       <c r="K15">
-        <v>1.017875509058164</v>
+        <v>1.037673049406546</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.01457774412548</v>
+        <v>1.043861013859027</v>
       </c>
       <c r="N15">
-        <v>1.008633919039513</v>
+        <v>1.033051090286944</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9802368363486789</v>
+        <v>1.025583269421472</v>
       </c>
       <c r="D16">
-        <v>1.005525479144443</v>
+        <v>1.034589432803082</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.002667933523426</v>
+        <v>1.040917201213748</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038398457289388</v>
+        <v>1.031697325090032</v>
       </c>
       <c r="J16">
-        <v>1.009177743720345</v>
+        <v>1.031972412741841</v>
       </c>
       <c r="K16">
-        <v>1.019759294187577</v>
+        <v>1.038031980152488</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.01695264746185</v>
+        <v>1.044337280322963</v>
       </c>
       <c r="N16">
-        <v>1.010610891870733</v>
+        <v>1.033437931936825</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9822406847936939</v>
+        <v>1.025964866536373</v>
       </c>
       <c r="D17">
-        <v>1.007038293124906</v>
+        <v>1.034887216427733</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.004492950274517</v>
+        <v>1.041288500476899</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038867491355263</v>
+        <v>1.031758980564254</v>
       </c>
       <c r="J17">
-        <v>1.01039885927543</v>
+        <v>1.032214632327234</v>
       </c>
       <c r="K17">
-        <v>1.020924030810718</v>
+        <v>1.038256939409886</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.01842265775159</v>
+        <v>1.04463601328221</v>
       </c>
       <c r="N17">
-        <v>1.01183374154997</v>
+        <v>1.033680495501811</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9833999164336431</v>
+        <v>1.026187481126905</v>
       </c>
       <c r="D18">
-        <v>1.007913939921029</v>
+        <v>1.035060919110066</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.005549545465924</v>
+        <v>1.041505140460765</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0391376456428</v>
+        <v>1.031794784829934</v>
       </c>
       <c r="J18">
-        <v>1.011105063731393</v>
+        <v>1.032355881599927</v>
       </c>
       <c r="K18">
-        <v>1.021597452526027</v>
+        <v>1.038388086141917</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.019273169189838</v>
+        <v>1.044810252959624</v>
       </c>
       <c r="N18">
-        <v>1.012540948897264</v>
+        <v>1.033821945364673</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9837935854204047</v>
+        <v>1.026263392948362</v>
       </c>
       <c r="D19">
-        <v>1.008211383679149</v>
+        <v>1.035120148988422</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.005908496178629</v>
+        <v>1.041579020498628</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039229186144044</v>
+        <v>1.03180696629122</v>
       </c>
       <c r="J19">
-        <v>1.011344849209431</v>
+        <v>1.032404038281155</v>
       </c>
       <c r="K19">
-        <v>1.021826076162759</v>
+        <v>1.038432792196618</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.019562014315945</v>
+        <v>1.044869663107254</v>
       </c>
       <c r="N19">
-        <v>1.012781074898185</v>
+        <v>1.033870170433913</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9820266878226076</v>
+        <v>1.025923921107248</v>
       </c>
       <c r="D20">
-        <v>1.006876684748495</v>
+        <v>1.034855265965532</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.004297965838225</v>
+        <v>1.041248656600344</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038817524145645</v>
+        <v>1.031752381889093</v>
       </c>
       <c r="J20">
-        <v>1.010268474543541</v>
+        <v>1.03218864789903</v>
       </c>
       <c r="K20">
-        <v>1.020799684176939</v>
+        <v>1.038232810458636</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.018265659371611</v>
+        <v>1.044603962697975</v>
       </c>
       <c r="N20">
-        <v>1.011703171656806</v>
+        <v>1.03365447417274</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9761677711359935</v>
+        <v>1.024820683009246</v>
       </c>
       <c r="D21">
-        <v>1.002456860535888</v>
+        <v>1.03399423194298</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9989675151862207</v>
+        <v>1.04017540617915</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037438462709043</v>
+        <v>1.031573062773864</v>
       </c>
       <c r="J21">
-        <v>1.006696842984776</v>
+        <v>1.031488002883539</v>
       </c>
       <c r="K21">
-        <v>1.017391835958809</v>
+        <v>1.037581850768166</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.013968474746122</v>
+        <v>1.043740074094524</v>
       </c>
       <c r="N21">
-        <v>1.008126467971556</v>
+        <v>1.032952834160961</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9723915709458333</v>
+        <v>1.02412735595172</v>
       </c>
       <c r="D22">
-        <v>0.9996132721907168</v>
+        <v>1.033452968220656</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9955400255688556</v>
+        <v>1.039501225381426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036539129858039</v>
+        <v>1.031458894210074</v>
       </c>
       <c r="J22">
-        <v>1.004393239769965</v>
+        <v>1.031047183964253</v>
       </c>
       <c r="K22">
-        <v>1.015192394129386</v>
+        <v>1.037171957716408</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.011200356225702</v>
+        <v>1.043196863350135</v>
       </c>
       <c r="N22">
-        <v>1.005819593375953</v>
+        <v>1.032511389228247</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9744024836722456</v>
+        <v>1.024494871017845</v>
       </c>
       <c r="D23">
-        <v>1.001127036435531</v>
+        <v>1.033739892270093</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9973644516138861</v>
+        <v>1.039858562802335</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037019012384568</v>
+        <v>1.031519551919986</v>
       </c>
       <c r="J23">
-        <v>1.005620094129548</v>
+        <v>1.031280898212669</v>
       </c>
       <c r="K23">
-        <v>1.016363904855754</v>
+        <v>1.037389307223439</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.012674273914867</v>
+        <v>1.043484834053362</v>
       </c>
       <c r="N23">
-        <v>1.007048190009449</v>
+        <v>1.032745435377703</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9821234133805364</v>
+        <v>1.025942422474617</v>
       </c>
       <c r="D24">
-        <v>1.006949729443187</v>
+        <v>1.034869702971648</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.004386095294516</v>
+        <v>1.041266660124883</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038840112747471</v>
+        <v>1.031755364035598</v>
       </c>
       <c r="J24">
-        <v>1.01032740845659</v>
+        <v>1.032200389246601</v>
       </c>
       <c r="K24">
-        <v>1.020855889420525</v>
+        <v>1.038243713503845</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.018336621527297</v>
+        <v>1.044618444996602</v>
       </c>
       <c r="N24">
-        <v>1.011762189262772</v>
+        <v>1.033666232194371</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9907099531485908</v>
+        <v>1.027623614266691</v>
       </c>
       <c r="D25">
-        <v>1.013443412548637</v>
+        <v>1.03618119447623</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.012226223510515</v>
+        <v>1.042903319097461</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040819624117951</v>
+        <v>1.032022798397818</v>
       </c>
       <c r="J25">
-        <v>1.01555406086654</v>
+        <v>1.0332660981621</v>
       </c>
       <c r="K25">
-        <v>1.025836560709562</v>
+        <v>1.039232526255656</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.024637662222679</v>
+        <v>1.045933690734839</v>
       </c>
       <c r="N25">
-        <v>1.016996264118649</v>
+        <v>1.034733454538768</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028965631712938</v>
+        <v>0.9972868040296179</v>
       </c>
       <c r="D2">
-        <v>1.037227525576902</v>
+        <v>1.018428752925773</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.044210805610972</v>
+        <v>1.01825384044194</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032231077692212</v>
+        <v>1.042297248180727</v>
       </c>
       <c r="J2">
-        <v>1.034115024638117</v>
+        <v>1.019548970274967</v>
       </c>
       <c r="K2">
-        <v>1.040019011186655</v>
+        <v>1.029637180098604</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.04698249520968</v>
+        <v>1.029464595446052</v>
       </c>
       <c r="N2">
-        <v>1.035583586587775</v>
+        <v>1.020996846756659</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029940688537354</v>
+        <v>1.001917618872317</v>
       </c>
       <c r="D3">
-        <v>1.037987402974559</v>
+        <v>1.021944243274564</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.04516135259206</v>
+        <v>1.022509800707089</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032379384310972</v>
+        <v>1.043314397587962</v>
       </c>
       <c r="J3">
-        <v>1.034730782812199</v>
+        <v>1.022356143821494</v>
       </c>
       <c r="K3">
-        <v>1.040588785002228</v>
+        <v>1.032303836373213</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.047743870258755</v>
+        <v>1.032862543123526</v>
       </c>
       <c r="N3">
-        <v>1.036200219209072</v>
+        <v>1.023808006811609</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030571906238008</v>
+        <v>1.004851114783761</v>
       </c>
       <c r="D4">
-        <v>1.038479156597969</v>
+        <v>1.024173223619862</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.045776967652096</v>
+        <v>1.025210983087666</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032473993568972</v>
+        <v>1.043947667901625</v>
       </c>
       <c r="J4">
-        <v>1.035128920655808</v>
+        <v>1.024131537351584</v>
       </c>
       <c r="K4">
-        <v>1.04095686788792</v>
+        <v>1.033988397100505</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.048236456269194</v>
+        <v>1.035014365356413</v>
       </c>
       <c r="N4">
-        <v>1.036598922454086</v>
+        <v>1.025585921604153</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030837339138631</v>
+        <v>1.006069834930697</v>
       </c>
       <c r="D5">
-        <v>1.038685903502808</v>
+        <v>1.025099675167514</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.04603590218602</v>
+        <v>1.026334375327169</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03251344243277</v>
+        <v>1.044208059885525</v>
       </c>
       <c r="J5">
-        <v>1.03529622549898</v>
+        <v>1.024868398453461</v>
       </c>
       <c r="K5">
-        <v>1.041111465669839</v>
+        <v>1.034687070908027</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.048443520577824</v>
+        <v>1.035908125606982</v>
       </c>
       <c r="N5">
-        <v>1.036766464889325</v>
+        <v>1.026323829133313</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030881910517546</v>
+        <v>1.006273627290793</v>
       </c>
       <c r="D6">
-        <v>1.038720617985422</v>
+        <v>1.025254617955346</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.046079386021748</v>
+        <v>1.026522295512119</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032520047006539</v>
+        <v>1.04425144218771</v>
       </c>
       <c r="J6">
-        <v>1.035324312456273</v>
+        <v>1.024991571456876</v>
       </c>
       <c r="K6">
-        <v>1.041137414832086</v>
+        <v>1.034803831380487</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.0484782864519</v>
+        <v>1.036057564745176</v>
       </c>
       <c r="N6">
-        <v>1.03679459173332</v>
+        <v>1.026447177056522</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030575452695149</v>
+        <v>1.004867455735278</v>
       </c>
       <c r="D7">
-        <v>1.038481919107974</v>
+        <v>1.024185644159952</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.04578042703877</v>
+        <v>1.025226041228743</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032474521963717</v>
+        <v>1.043951170038292</v>
       </c>
       <c r="J7">
-        <v>1.035131156476375</v>
+        <v>1.024141420311676</v>
       </c>
       <c r="K7">
-        <v>1.040958934199027</v>
+        <v>1.033997769834217</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.048239223147946</v>
+        <v>1.03502635006013</v>
       </c>
       <c r="N7">
-        <v>1.036601161449775</v>
+        <v>1.025595818599182</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029295096157606</v>
+        <v>0.998865183810998</v>
       </c>
       <c r="D8">
-        <v>1.037484316118142</v>
+        <v>1.019626522499702</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.044531933346655</v>
+        <v>1.019703343891475</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032281478896736</v>
+        <v>1.042646230137098</v>
       </c>
       <c r="J8">
-        <v>1.03432318442408</v>
+        <v>1.020506355963105</v>
       </c>
       <c r="K8">
-        <v>1.040211692379605</v>
+        <v>1.03054704414974</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.047239820307927</v>
+        <v>1.030622874564777</v>
       </c>
       <c r="N8">
-        <v>1.03579204198449</v>
+        <v>1.021955592042288</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02704119834437</v>
+        <v>0.987780080170988</v>
       </c>
       <c r="D9">
-        <v>1.035726940582027</v>
+        <v>1.011225640357624</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.042336171814873</v>
+        <v>1.00954732236223</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031930954979587</v>
+        <v>1.040150146731846</v>
       </c>
       <c r="J9">
-        <v>1.032897178665435</v>
+        <v>1.013771859708613</v>
       </c>
       <c r="K9">
-        <v>1.038890409372019</v>
+        <v>1.024139177522652</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.045478217784946</v>
+        <v>1.022487377021869</v>
       </c>
       <c r="N9">
-        <v>1.034364011134102</v>
+        <v>1.015211532030657</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025540150082755</v>
+        <v>0.980009066052526</v>
       </c>
       <c r="D10">
-        <v>1.034555781838992</v>
+        <v>1.005353590535515</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.040875249968479</v>
+        <v>1.002460603722071</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031690336014876</v>
+        <v>1.038344983898882</v>
       </c>
       <c r="J10">
-        <v>1.031945035105704</v>
+        <v>1.009038915866721</v>
       </c>
       <c r="K10">
-        <v>1.038006548382924</v>
+        <v>1.019626852369169</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.044303519805536</v>
+        <v>1.016785572876392</v>
       </c>
       <c r="N10">
-        <v>1.033410515421304</v>
+        <v>1.010471866865633</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024890554008044</v>
+        <v>0.9765442301615961</v>
       </c>
       <c r="D11">
-        <v>1.034048772305087</v>
+        <v>1.002740568462918</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.040243360491691</v>
+        <v>0.9993095584156423</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031584505739946</v>
+        <v>1.03752768667807</v>
       </c>
       <c r="J11">
-        <v>1.031532405849673</v>
+        <v>1.006926433571385</v>
       </c>
       <c r="K11">
-        <v>1.037623124490733</v>
+        <v>1.017610986082908</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.043794804158838</v>
+        <v>1.014244507210208</v>
       </c>
       <c r="N11">
-        <v>1.0329973001844</v>
+        <v>1.008356384603133</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024649320807748</v>
+        <v>0.9752413380948297</v>
       </c>
       <c r="D12">
-        <v>1.033860464018</v>
+        <v>1.001758850448428</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.040008754699573</v>
+        <v>0.9981260451646998</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031544949586817</v>
+        <v>1.037218549013019</v>
       </c>
       <c r="J12">
-        <v>1.031379085825585</v>
+        <v>1.006131790005351</v>
       </c>
       <c r="K12">
-        <v>1.037480598481516</v>
+        <v>1.016852431059676</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.043605835851357</v>
+        <v>1.013289235470532</v>
       </c>
       <c r="N12">
-        <v>1.032843762428292</v>
+        <v>1.007560612552088</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024701063619933</v>
+        <v>0.9755215471916205</v>
       </c>
       <c r="D13">
-        <v>1.033900855969242</v>
+        <v>1.001969945011787</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.040059073620852</v>
+        <v>0.9983805160188054</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031553445644755</v>
+        <v>1.037285114953184</v>
       </c>
       <c r="J13">
-        <v>1.031411975795112</v>
+        <v>1.006302703431789</v>
       </c>
       <c r="K13">
-        <v>1.037511175546644</v>
+        <v>1.017015593631913</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.043646370572475</v>
+        <v>1.013494670248972</v>
       </c>
       <c r="N13">
-        <v>1.032876699105348</v>
+        <v>1.007731768695195</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024870612457424</v>
+        <v>0.976436862350579</v>
       </c>
       <c r="D14">
-        <v>1.034033206317291</v>
+        <v>1.002659649620762</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.040223965733483</v>
+        <v>0.999211999712377</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031581241033476</v>
+        <v>1.03750224784019</v>
       </c>
       <c r="J14">
-        <v>1.031519733408212</v>
+        <v>1.006860954538815</v>
       </c>
       <c r="K14">
-        <v>1.037611345389875</v>
+        <v>1.01754848580948</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.043779184151168</v>
+        <v>1.014165780272672</v>
       </c>
       <c r="N14">
-        <v>1.032984609746618</v>
+        <v>1.008290812582825</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024975084487258</v>
+        <v>0.9769986840722595</v>
       </c>
       <c r="D15">
-        <v>1.034114754104023</v>
+        <v>1.003083108053327</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.04032557529553</v>
+        <v>0.9997225503288746</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031598334094703</v>
+        <v>1.037635287945738</v>
       </c>
       <c r="J15">
-        <v>1.031586119672427</v>
+        <v>1.00720357443595</v>
       </c>
       <c r="K15">
-        <v>1.037673049406546</v>
+        <v>1.017875509058164</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.043861013859027</v>
+        <v>1.014577744125481</v>
       </c>
       <c r="N15">
-        <v>1.033051090286944</v>
+        <v>1.008633919039514</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025583269421472</v>
+        <v>0.9802368363486782</v>
       </c>
       <c r="D16">
-        <v>1.034589432803082</v>
+        <v>1.005525479144442</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.040917201213748</v>
+        <v>1.002667933523425</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031697325090032</v>
+        <v>1.038398457289388</v>
       </c>
       <c r="J16">
-        <v>1.031972412741841</v>
+        <v>1.009177743720345</v>
       </c>
       <c r="K16">
-        <v>1.038031980152488</v>
+        <v>1.019759294187576</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.044337280322963</v>
+        <v>1.01695264746185</v>
       </c>
       <c r="N16">
-        <v>1.033437931936825</v>
+        <v>1.010610891870733</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025964866536373</v>
+        <v>0.982240684793695</v>
       </c>
       <c r="D17">
-        <v>1.034887216427733</v>
+        <v>1.007038293124907</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.041288500476899</v>
+        <v>1.004492950274518</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031758980564254</v>
+        <v>1.038867491355264</v>
       </c>
       <c r="J17">
-        <v>1.032214632327234</v>
+        <v>1.010398859275431</v>
       </c>
       <c r="K17">
-        <v>1.038256939409886</v>
+        <v>1.020924030810719</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.04463601328221</v>
+        <v>1.018422657751591</v>
       </c>
       <c r="N17">
-        <v>1.033680495501811</v>
+        <v>1.011833741549971</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026187481126905</v>
+        <v>0.9833999164336439</v>
       </c>
       <c r="D18">
-        <v>1.035060919110066</v>
+        <v>1.00791393992103</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.041505140460765</v>
+        <v>1.005549545465925</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031794784829934</v>
+        <v>1.0391376456428</v>
       </c>
       <c r="J18">
-        <v>1.032355881599927</v>
+        <v>1.011105063731394</v>
       </c>
       <c r="K18">
-        <v>1.038388086141917</v>
+        <v>1.021597452526027</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.044810252959624</v>
+        <v>1.019273169189839</v>
       </c>
       <c r="N18">
-        <v>1.033821945364673</v>
+        <v>1.012540948897264</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026263392948362</v>
+        <v>0.9837935854204055</v>
       </c>
       <c r="D19">
-        <v>1.035120148988422</v>
+        <v>1.00821138367915</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.041579020498628</v>
+        <v>1.00590849617863</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03180696629122</v>
+        <v>1.039229186144045</v>
       </c>
       <c r="J19">
-        <v>1.032404038281155</v>
+        <v>1.011344849209432</v>
       </c>
       <c r="K19">
-        <v>1.038432792196618</v>
+        <v>1.02182607616276</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.044869663107254</v>
+        <v>1.019562014315946</v>
       </c>
       <c r="N19">
-        <v>1.033870170433913</v>
+        <v>1.012781074898186</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025923921107248</v>
+        <v>0.9820266878226075</v>
       </c>
       <c r="D20">
-        <v>1.034855265965532</v>
+        <v>1.006876684748494</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.041248656600344</v>
+        <v>1.004297965838225</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031752381889093</v>
+        <v>1.038817524145645</v>
       </c>
       <c r="J20">
-        <v>1.03218864789903</v>
+        <v>1.010268474543541</v>
       </c>
       <c r="K20">
-        <v>1.038232810458636</v>
+        <v>1.020799684176939</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.044603962697975</v>
+        <v>1.018265659371611</v>
       </c>
       <c r="N20">
-        <v>1.03365447417274</v>
+        <v>1.011703171656806</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024820683009246</v>
+        <v>0.9761677711359933</v>
       </c>
       <c r="D21">
-        <v>1.03399423194298</v>
+        <v>1.002456860535888</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.04017540617915</v>
+        <v>0.9989675151862205</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031573062773864</v>
+        <v>1.037438462709043</v>
       </c>
       <c r="J21">
-        <v>1.031488002883539</v>
+        <v>1.006696842984776</v>
       </c>
       <c r="K21">
-        <v>1.037581850768166</v>
+        <v>1.017391835958809</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.043740074094524</v>
+        <v>1.013968474746122</v>
       </c>
       <c r="N21">
-        <v>1.032952834160961</v>
+        <v>1.008126467971556</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02412735595172</v>
+        <v>0.9723915709458333</v>
       </c>
       <c r="D22">
-        <v>1.033452968220656</v>
+        <v>0.9996132721907166</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.039501225381426</v>
+        <v>0.9955400255688551</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031458894210074</v>
+        <v>1.036539129858039</v>
       </c>
       <c r="J22">
-        <v>1.031047183964253</v>
+        <v>1.004393239769965</v>
       </c>
       <c r="K22">
-        <v>1.037171957716408</v>
+        <v>1.015192394129386</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.043196863350135</v>
+        <v>1.011200356225701</v>
       </c>
       <c r="N22">
-        <v>1.032511389228247</v>
+        <v>1.005819593375953</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024494871017845</v>
+        <v>0.9744024836722456</v>
       </c>
       <c r="D23">
-        <v>1.033739892270093</v>
+        <v>1.001127036435531</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.039858562802335</v>
+        <v>0.997364451613886</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031519551919986</v>
+        <v>1.037019012384568</v>
       </c>
       <c r="J23">
-        <v>1.031280898212669</v>
+        <v>1.005620094129548</v>
       </c>
       <c r="K23">
-        <v>1.037389307223439</v>
+        <v>1.016363904855754</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.043484834053362</v>
+        <v>1.012674273914867</v>
       </c>
       <c r="N23">
-        <v>1.032745435377703</v>
+        <v>1.007048190009449</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025942422474617</v>
+        <v>0.9821234133805352</v>
       </c>
       <c r="D24">
-        <v>1.034869702971648</v>
+        <v>1.006949729443186</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.041266660124883</v>
+        <v>1.004386095294515</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031755364035598</v>
+        <v>1.038840112747471</v>
       </c>
       <c r="J24">
-        <v>1.032200389246601</v>
+        <v>1.010327408456589</v>
       </c>
       <c r="K24">
-        <v>1.038243713503845</v>
+        <v>1.020855889420525</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.044618444996602</v>
+        <v>1.018336621527296</v>
       </c>
       <c r="N24">
-        <v>1.033666232194371</v>
+        <v>1.011762189262771</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027623614266691</v>
+        <v>0.990709953148592</v>
       </c>
       <c r="D25">
-        <v>1.03618119447623</v>
+        <v>1.013443412548638</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.042903319097461</v>
+        <v>1.012226223510517</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032022798397818</v>
+        <v>1.040819624117952</v>
       </c>
       <c r="J25">
-        <v>1.0332660981621</v>
+        <v>1.015554060866541</v>
       </c>
       <c r="K25">
-        <v>1.039232526255656</v>
+        <v>1.025836560709563</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.045933690734839</v>
+        <v>1.02463766222268</v>
       </c>
       <c r="N25">
-        <v>1.034733454538768</v>
+        <v>1.016996264118651</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9972868040296179</v>
+        <v>1.000106520352666</v>
       </c>
       <c r="D2">
-        <v>1.018428752925773</v>
+        <v>1.021366513185367</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.01825384044194</v>
+        <v>1.025873440701189</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042297248180727</v>
+        <v>1.04837590401742</v>
       </c>
       <c r="J2">
-        <v>1.019548970274967</v>
+        <v>1.022284045882</v>
       </c>
       <c r="K2">
-        <v>1.029637180098604</v>
+        <v>1.03253599249413</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.029464595446052</v>
+        <v>1.036983711903298</v>
       </c>
       <c r="N2">
-        <v>1.020996846756659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011172986880433</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.037842512692906</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.034075980275754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001917618872317</v>
+        <v>1.004525417767735</v>
       </c>
       <c r="D3">
-        <v>1.021944243274564</v>
+        <v>1.024284918384364</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.022509800707089</v>
+        <v>1.028895814356564</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043314397587962</v>
+        <v>1.049425404401306</v>
       </c>
       <c r="J3">
-        <v>1.022356143821494</v>
+        <v>1.024893470987644</v>
       </c>
       <c r="K3">
-        <v>1.032303836373213</v>
+        <v>1.03461621953047</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.032862543123526</v>
+        <v>1.039171850077833</v>
       </c>
       <c r="N3">
-        <v>1.023808006811609</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012065228415352</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.039574281667274</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.035544220857502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004851114783761</v>
+        <v>1.007324961746349</v>
       </c>
       <c r="D4">
-        <v>1.024173223619862</v>
+        <v>1.026135902480063</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.025210983087666</v>
+        <v>1.030818625925724</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043947667901625</v>
+        <v>1.050076624006392</v>
       </c>
       <c r="J4">
-        <v>1.024131537351584</v>
+        <v>1.026543132260633</v>
       </c>
       <c r="K4">
-        <v>1.033988397100505</v>
+        <v>1.035928800423635</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.035014365356413</v>
+        <v>1.040558798887205</v>
       </c>
       <c r="N4">
-        <v>1.025585921604153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012629394228372</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.040671959232279</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.036473239646721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006069834930697</v>
+        <v>1.0084928054654</v>
       </c>
       <c r="D5">
-        <v>1.025099675167514</v>
+        <v>1.026910516786025</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.026334375327169</v>
+        <v>1.031621381558429</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044208059885525</v>
+        <v>1.05034641818971</v>
       </c>
       <c r="J5">
-        <v>1.024868398453461</v>
+        <v>1.027232248307713</v>
       </c>
       <c r="K5">
-        <v>1.034687070908027</v>
+        <v>1.03647791355664</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.035908125606982</v>
+        <v>1.041137155189605</v>
       </c>
       <c r="N5">
-        <v>1.026323829133313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012866229101689</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041129689213633</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.036868714066703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006273627290793</v>
+        <v>1.008693850872561</v>
       </c>
       <c r="D6">
-        <v>1.025254617955346</v>
+        <v>1.027046351208674</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.026522295512119</v>
+        <v>1.031758206821939</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04425144218771</v>
+        <v>1.050394465422385</v>
       </c>
       <c r="J6">
-        <v>1.024991571456876</v>
+        <v>1.02735304981078</v>
       </c>
       <c r="K6">
-        <v>1.034803831380487</v>
+        <v>1.036575868289183</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.036057564745176</v>
+        <v>1.04123632752707</v>
       </c>
       <c r="N6">
-        <v>1.026447177056522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01290913565834</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.041208177396673</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.036946757779832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004867455735278</v>
+        <v>1.007356111541705</v>
       </c>
       <c r="D7">
-        <v>1.024185644159952</v>
+        <v>1.026163127077688</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.025226041228743</v>
+        <v>1.030836046724202</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043951170038292</v>
+        <v>1.050088644019083</v>
       </c>
       <c r="J7">
-        <v>1.024141420311676</v>
+        <v>1.026567478290056</v>
       </c>
       <c r="K7">
-        <v>1.033997769834217</v>
+        <v>1.035952817757766</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.03502635006013</v>
+        <v>1.040573143172483</v>
       </c>
       <c r="N7">
-        <v>1.025595818599182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012641551589571</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.040683311769524</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.036510422511995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.998865183810998</v>
+        <v>1.001631976731327</v>
       </c>
       <c r="D8">
-        <v>1.019626522499702</v>
+        <v>1.022381562641187</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.019703343891475</v>
+        <v>1.026910108873198</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042646230137098</v>
+        <v>1.048746804606635</v>
       </c>
       <c r="J8">
-        <v>1.020506355963105</v>
+        <v>1.023192944498269</v>
       </c>
       <c r="K8">
-        <v>1.03054704414974</v>
+        <v>1.033266661339385</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.030622874564777</v>
+        <v>1.037737497381286</v>
       </c>
       <c r="N8">
-        <v>1.021955592042288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011488753690538</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.038439085319953</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.034615667021417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.987780080170988</v>
+        <v>0.9910390692513464</v>
       </c>
       <c r="D9">
-        <v>1.011225640357624</v>
+        <v>1.015392400789962</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.00954732236223</v>
+        <v>1.019718687014473</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040150146731846</v>
+        <v>1.046149660904428</v>
       </c>
       <c r="J9">
-        <v>1.013771859708613</v>
+        <v>1.016912278367796</v>
       </c>
       <c r="K9">
-        <v>1.024139177522652</v>
+        <v>1.028240587490121</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.022487377021869</v>
+        <v>1.03249974291919</v>
       </c>
       <c r="N9">
-        <v>1.015211532030657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009337525262556</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.034293729876441</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.031058648401689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.980009066052526</v>
+        <v>0.9837207002619854</v>
       </c>
       <c r="D10">
-        <v>1.005353590535515</v>
+        <v>1.01058937974301</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.002460603722071</v>
+        <v>1.014966140360794</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038344983898882</v>
+        <v>1.044316770787417</v>
       </c>
       <c r="J10">
-        <v>1.009038915866721</v>
+        <v>1.012595434547557</v>
       </c>
       <c r="K10">
-        <v>1.019626852369169</v>
+        <v>1.024770036106192</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.016785572876392</v>
+        <v>1.029070333859278</v>
       </c>
       <c r="N10">
-        <v>1.010471866865633</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007880071862653</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.031631422979652</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.028621658555303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9765442301615961</v>
+        <v>0.9812152365592256</v>
       </c>
       <c r="D11">
-        <v>1.002740568462918</v>
+        <v>1.009000195184665</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9993095584156423</v>
+        <v>1.014678319916042</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03752768667807</v>
+        <v>1.043889816310797</v>
       </c>
       <c r="J11">
-        <v>1.006926433571385</v>
+        <v>1.011390915971115</v>
       </c>
       <c r="K11">
-        <v>1.017610986082908</v>
+        <v>1.02375435378277</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.014244507210208</v>
+        <v>1.029328633664223</v>
       </c>
       <c r="N11">
-        <v>1.008356384603133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007630538291458</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.032275193316146</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.027936665261359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9752413380948297</v>
+        <v>0.9804681332282701</v>
       </c>
       <c r="D12">
-        <v>1.001758850448428</v>
+        <v>1.008530296697505</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9981260451646998</v>
+        <v>1.015158700991772</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037218549013019</v>
+        <v>1.043832733364136</v>
       </c>
       <c r="J12">
-        <v>1.006131790005351</v>
+        <v>1.011122753223103</v>
       </c>
       <c r="K12">
-        <v>1.016852431059676</v>
+        <v>1.023495874343</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.013289235470532</v>
+        <v>1.030001134712771</v>
       </c>
       <c r="N12">
-        <v>1.007560612552088</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007651108094793</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.033135445383798</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.027753908638613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9755215471916205</v>
+        <v>0.9810504948816969</v>
       </c>
       <c r="D13">
-        <v>1.001969945011787</v>
+        <v>1.008915402831881</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.9983805160188054</v>
+        <v>1.016292995467346</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037285114953184</v>
+        <v>1.04407519968105</v>
       </c>
       <c r="J13">
-        <v>1.006302703431789</v>
+        <v>1.01158341766798</v>
       </c>
       <c r="K13">
-        <v>1.017015593631913</v>
+        <v>1.02383030092276</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.013494670248972</v>
+        <v>1.031071556603331</v>
       </c>
       <c r="N13">
-        <v>1.007731768695195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007895184774183</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.034259786126128</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.027987846882669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.976436862350579</v>
+        <v>0.982049472515077</v>
       </c>
       <c r="D14">
-        <v>1.002659649620762</v>
+        <v>1.009565067024661</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.999211999712377</v>
+        <v>1.017366464559998</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03750224784019</v>
+        <v>1.044374796474028</v>
       </c>
       <c r="J14">
-        <v>1.006860954538815</v>
+        <v>1.012225314479374</v>
       </c>
       <c r="K14">
-        <v>1.01754848580948</v>
+        <v>1.024325562055285</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.014165780272672</v>
+        <v>1.031984690992341</v>
       </c>
       <c r="N14">
-        <v>1.008290812582825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008162244329167</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.035155568294551</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.028339457175227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9769986840722595</v>
+        <v>0.9825999920224009</v>
       </c>
       <c r="D15">
-        <v>1.003083108053327</v>
+        <v>1.009925428589647</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9997225503288746</v>
+        <v>1.017807331082329</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037635287945738</v>
+        <v>1.044523794415964</v>
       </c>
       <c r="J15">
-        <v>1.00720357443595</v>
+        <v>1.012559392556132</v>
       </c>
       <c r="K15">
-        <v>1.017875509058164</v>
+        <v>1.024591660777473</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782941</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.014577744125481</v>
+        <v>1.032330956017613</v>
       </c>
       <c r="N15">
-        <v>1.008633919039514</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008285182874881</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035466911904675</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.028533526369432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9802368363486782</v>
+        <v>0.9855985379168603</v>
       </c>
       <c r="D16">
-        <v>1.005525479144442</v>
+        <v>1.011895834524495</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.002667933523425</v>
+        <v>1.019655284822475</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038398457289388</v>
+        <v>1.045277569526125</v>
       </c>
       <c r="J16">
-        <v>1.009177743720345</v>
+        <v>1.014316769937127</v>
       </c>
       <c r="K16">
-        <v>1.019759294187576</v>
+        <v>1.026017520258891</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.01695264746185</v>
+        <v>1.033642836375046</v>
       </c>
       <c r="N16">
-        <v>1.010610891870733</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008861882372863</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036464977836814</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.029544867533538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.982240684793695</v>
+        <v>0.9873829894513738</v>
       </c>
       <c r="D17">
-        <v>1.007038293124907</v>
+        <v>1.013073761156137</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.004492950274518</v>
+        <v>1.020510264394548</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038867491355264</v>
+        <v>1.045699035250801</v>
       </c>
       <c r="J17">
-        <v>1.010398859275431</v>
+        <v>1.015334806507425</v>
       </c>
       <c r="K17">
-        <v>1.020924030810719</v>
+        <v>1.026856378370799</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068056</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.018422657751591</v>
+        <v>1.03416798377462</v>
       </c>
       <c r="N17">
-        <v>1.011833741549971</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009167649448278</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.036750608346515</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.030140586388183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9833999164336439</v>
+        <v>0.9882391457651969</v>
       </c>
       <c r="D18">
-        <v>1.00791393992103</v>
+        <v>1.013633604810109</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.005549545465925</v>
+        <v>1.020468091934257</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0391376456428</v>
+        <v>1.045843380553823</v>
       </c>
       <c r="J18">
-        <v>1.011105063731394</v>
+        <v>1.015753947077038</v>
       </c>
       <c r="K18">
-        <v>1.021597452526027</v>
+        <v>1.027221082236094</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.019273169189839</v>
+        <v>1.033942631011369</v>
       </c>
       <c r="N18">
-        <v>1.012540948897264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009238778436179</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.036333850180378</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.030386715504406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9837935854204055</v>
+        <v>0.9882046182283828</v>
       </c>
       <c r="D19">
-        <v>1.00821138367915</v>
+        <v>1.013598718675786</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.00590849617863</v>
+        <v>1.019538425371895</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039229186144045</v>
+        <v>1.045714232545011</v>
       </c>
       <c r="J19">
-        <v>1.011344849209432</v>
+        <v>1.015583486577512</v>
       </c>
       <c r="K19">
-        <v>1.02182607616276</v>
+        <v>1.027123470310783</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.019562014315946</v>
+        <v>1.032965430351497</v>
       </c>
       <c r="N19">
-        <v>1.012781074898186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009082314120796</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.035234070930106</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.030324146059737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9820266878226075</v>
+        <v>0.9856642795639057</v>
       </c>
       <c r="D20">
-        <v>1.006876684748494</v>
+        <v>1.011879489513188</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.004297965838225</v>
+        <v>1.016223284247464</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038817524145645</v>
+        <v>1.044820287942021</v>
       </c>
       <c r="J20">
-        <v>1.010268474543541</v>
+        <v>1.013759227716593</v>
       </c>
       <c r="K20">
-        <v>1.020799684176939</v>
+        <v>1.025716619931514</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.018265659371611</v>
+        <v>1.029986741607986</v>
       </c>
       <c r="N20">
-        <v>1.011703171656806</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008285247267707</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.032346032512079</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.029333392437687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9761677711359933</v>
+        <v>0.9799900405413594</v>
       </c>
       <c r="D21">
-        <v>1.002456860535888</v>
+        <v>1.008148379776431</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9989675151862205</v>
+        <v>1.012298348228541</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037438462709043</v>
+        <v>1.043330965044492</v>
       </c>
       <c r="J21">
-        <v>1.006696842984776</v>
+        <v>1.010348865068191</v>
       </c>
       <c r="K21">
-        <v>1.017391835958809</v>
+        <v>1.022977005703746</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.013968474746122</v>
+        <v>1.0270504113803</v>
       </c>
       <c r="N21">
-        <v>1.008126467971556</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007102746316528</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.029980898502875</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.027399619131381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9723915709458333</v>
+        <v>0.976367391714044</v>
       </c>
       <c r="D22">
-        <v>0.9996132721907166</v>
+        <v>1.005768615126399</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9955400255688551</v>
+        <v>1.009893201999874</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036539129858039</v>
+        <v>1.042376624253493</v>
       </c>
       <c r="J22">
-        <v>1.004393239769965</v>
+        <v>1.008181065075759</v>
       </c>
       <c r="K22">
-        <v>1.015192394129386</v>
+        <v>1.021226654312575</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.011200356225701</v>
+        <v>1.025271187690853</v>
       </c>
       <c r="N22">
-        <v>1.005819593375953</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006355688505246</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.028572739863299</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.026148383000468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9744024836722456</v>
+        <v>0.9782817193113366</v>
       </c>
       <c r="D23">
-        <v>1.001127036435531</v>
+        <v>1.007020134787169</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.997364451613886</v>
+        <v>1.011166547010608</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037019012384568</v>
+        <v>1.042878514654496</v>
       </c>
       <c r="J23">
-        <v>1.005620094129548</v>
+        <v>1.009321586443166</v>
       </c>
       <c r="K23">
-        <v>1.016363904855754</v>
+        <v>1.022144172792211</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.012674273914867</v>
+        <v>1.026212226430708</v>
       </c>
       <c r="N23">
-        <v>1.007048190009449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006744406745389</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029317521126585</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.026787382667982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9821234133805352</v>
+        <v>0.985657897187515</v>
       </c>
       <c r="D24">
-        <v>1.006949729443186</v>
+        <v>1.011861209785676</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.004386095294515</v>
+        <v>1.016092744343226</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038840112747471</v>
+        <v>1.044791200728105</v>
       </c>
       <c r="J24">
-        <v>1.010327408456589</v>
+        <v>1.013719435755101</v>
       </c>
       <c r="K24">
-        <v>1.020855889420525</v>
+        <v>1.025683182599092</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.018336621527296</v>
+        <v>1.029843026702636</v>
       </c>
       <c r="N24">
-        <v>1.011762189262771</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008250665295925</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.032191095662435</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.029282102627869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.990709953148592</v>
+        <v>0.9938629466806637</v>
       </c>
       <c r="D25">
-        <v>1.013443412548638</v>
+        <v>1.017262832300065</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.012226223510517</v>
+        <v>1.021621153543513</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040819624117952</v>
+        <v>1.046861013194444</v>
       </c>
       <c r="J25">
-        <v>1.015554060866541</v>
+        <v>1.018598627121543</v>
       </c>
       <c r="K25">
-        <v>1.025836560709563</v>
+        <v>1.029598947793332</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.02463766222268</v>
+        <v>1.033892850854961</v>
       </c>
       <c r="N25">
-        <v>1.016996264118651</v>
+        <v>1.009921749285164</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.035396290142717</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.032047903372066</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_56/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000106520352666</v>
+        <v>1.000354559668358</v>
       </c>
       <c r="D2">
-        <v>1.021366513185367</v>
+        <v>1.021208777114625</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.025873440701189</v>
+        <v>1.025941357465054</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04837590401742</v>
+        <v>1.048301877894797</v>
       </c>
       <c r="J2">
-        <v>1.022284045882</v>
+        <v>1.022524671086906</v>
       </c>
       <c r="K2">
-        <v>1.03253599249413</v>
+        <v>1.032380340495491</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.036983711903298</v>
+        <v>1.037050741419847</v>
       </c>
       <c r="N2">
-        <v>1.011172986880433</v>
+        <v>1.013083381767672</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.037842512692906</v>
+        <v>1.037895562255622</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.034075980275754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.033974745601103</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020710997067812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004525417767735</v>
+        <v>1.004475987048679</v>
       </c>
       <c r="D3">
-        <v>1.024284918384364</v>
+        <v>1.023820078789123</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.028895814356564</v>
+        <v>1.028831326096429</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049425404401306</v>
+        <v>1.049196526289894</v>
       </c>
       <c r="J3">
-        <v>1.024893470987644</v>
+        <v>1.024845371430758</v>
       </c>
       <c r="K3">
-        <v>1.03461621953047</v>
+        <v>1.034156985713344</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.039171850077833</v>
+        <v>1.039108130528284</v>
       </c>
       <c r="N3">
-        <v>1.012065228415352</v>
+        <v>1.013709214594147</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039574281667274</v>
+        <v>1.039523851849432</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.035544220857502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035228043767449</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021082679486042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007324961746349</v>
+        <v>1.007089578011228</v>
       </c>
       <c r="D4">
-        <v>1.026135902480063</v>
+        <v>1.025478087953737</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.030818625925724</v>
+        <v>1.030671342964889</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050076624006392</v>
+        <v>1.049750283062901</v>
       </c>
       <c r="J4">
-        <v>1.026543132260633</v>
+        <v>1.026313653972783</v>
       </c>
       <c r="K4">
-        <v>1.035928800423635</v>
+        <v>1.035278440089356</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.040558798887205</v>
+        <v>1.04041316526989</v>
       </c>
       <c r="N4">
-        <v>1.012629394228372</v>
+        <v>1.014105384356388</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.040671959232279</v>
+        <v>1.040556700006903</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.036473239646721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036021997588797</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021314741684738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0084928054654</v>
+        <v>1.008180161113701</v>
       </c>
       <c r="D5">
-        <v>1.026910516786025</v>
+        <v>1.026172449333004</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.031621381558429</v>
+        <v>1.031439716581534</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05034641818971</v>
+        <v>1.049979508238692</v>
       </c>
       <c r="J5">
-        <v>1.027232248307713</v>
+        <v>1.026927211030003</v>
       </c>
       <c r="K5">
-        <v>1.03647791355664</v>
+        <v>1.035747986860998</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.041137155189605</v>
+        <v>1.040957470224605</v>
       </c>
       <c r="N5">
-        <v>1.012866229101689</v>
+        <v>1.014271733236104</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041129689213633</v>
+        <v>1.040987480721455</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.036868714066703</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036361921593077</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021411921589943</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008693850872561</v>
+        <v>1.008367627059006</v>
       </c>
       <c r="D6">
-        <v>1.027046351208674</v>
+        <v>1.026294346655755</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.031758206821939</v>
+        <v>1.031570527680362</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050394465422385</v>
+        <v>1.050020509319907</v>
       </c>
       <c r="J6">
-        <v>1.02735304981078</v>
+        <v>1.027034722211771</v>
       </c>
       <c r="K6">
-        <v>1.036575868289183</v>
+        <v>1.035832120158635</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.04123632752707</v>
+        <v>1.041050684552781</v>
       </c>
       <c r="N6">
-        <v>1.01290913565834</v>
+        <v>1.014301793810861</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.041208177396673</v>
+        <v>1.04106125355875</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.036946757779832</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036431061452907</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021430070416238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007356111541705</v>
+        <v>1.00713021101092</v>
       </c>
       <c r="D7">
-        <v>1.026163127077688</v>
+        <v>1.025511306873002</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.030836046724202</v>
+        <v>1.030692887844179</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050088644019083</v>
+        <v>1.049765457769467</v>
       </c>
       <c r="J7">
-        <v>1.026567478290056</v>
+        <v>1.026347242670636</v>
       </c>
       <c r="K7">
-        <v>1.035952817757766</v>
+        <v>1.035308380817053</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.040573143172483</v>
+        <v>1.040431586843573</v>
       </c>
       <c r="N7">
-        <v>1.012641551589571</v>
+        <v>1.014143866960924</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040683311769524</v>
+        <v>1.040571279446048</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.036510422511995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036065368124246</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021324066710514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001631976731327</v>
+        <v>1.001813937240623</v>
       </c>
       <c r="D8">
-        <v>1.022381562641187</v>
+        <v>1.022143353037109</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.026910108873198</v>
+        <v>1.02694824133792</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048746804606635</v>
+        <v>1.048632635265568</v>
       </c>
       <c r="J8">
-        <v>1.023192944498269</v>
+        <v>1.023369651568816</v>
       </c>
       <c r="K8">
-        <v>1.033266661339385</v>
+        <v>1.033031505089815</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.037737497381286</v>
+        <v>1.037775146597186</v>
       </c>
       <c r="N8">
-        <v>1.011488753690538</v>
+        <v>1.013396507054839</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038439085319953</v>
+        <v>1.038468882234927</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034615667021417</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034460477758534</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020853555530381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9910390692513464</v>
+        <v>0.9919573160536135</v>
       </c>
       <c r="D9">
-        <v>1.015392400789962</v>
+        <v>1.015905105828457</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.019718687014473</v>
+        <v>1.020084315686714</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046149660904428</v>
+        <v>1.046413244799548</v>
       </c>
       <c r="J9">
-        <v>1.016912278367796</v>
+        <v>1.017797314284885</v>
       </c>
       <c r="K9">
-        <v>1.028240587490121</v>
+        <v>1.02874529873317</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.03249974291919</v>
+        <v>1.032859731464222</v>
       </c>
       <c r="N9">
-        <v>1.009337525262556</v>
+        <v>1.01190258612139</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034293729876441</v>
+        <v>1.03457863909688</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.031058648401689</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031426341433103</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019940676258342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9837207002619854</v>
+        <v>0.9852128923170478</v>
       </c>
       <c r="D10">
-        <v>1.01058937974301</v>
+        <v>1.01166422324644</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.014966140360794</v>
+        <v>1.015586628128909</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044316770787417</v>
+        <v>1.044862935159479</v>
       </c>
       <c r="J10">
-        <v>1.012595434547557</v>
+        <v>1.014025733480209</v>
       </c>
       <c r="K10">
-        <v>1.024770036106192</v>
+        <v>1.025826022479548</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.029070333859278</v>
+        <v>1.029680050611148</v>
       </c>
       <c r="N10">
-        <v>1.007880071862653</v>
+        <v>1.011020963761548</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031631422979652</v>
+        <v>1.032113948205772</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.028621658555303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029380830777201</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019318148451322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9812152365592256</v>
+        <v>0.9829373010478711</v>
       </c>
       <c r="D11">
-        <v>1.009000195184665</v>
+        <v>1.010287314028939</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.014678319916042</v>
+        <v>1.015401579496317</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043889816310797</v>
+        <v>1.044543904659418</v>
       </c>
       <c r="J11">
-        <v>1.011390915971115</v>
+        <v>1.01303754842626</v>
       </c>
       <c r="K11">
-        <v>1.02375435378277</v>
+        <v>1.025017799780622</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.029328633664223</v>
+        <v>1.030038774309684</v>
       </c>
       <c r="N11">
-        <v>1.007630538291458</v>
+        <v>1.011087154850283</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032275193316146</v>
+        <v>1.032836906301242</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.027936665261359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.028845722865579</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019201377555946</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9804681332282701</v>
+        <v>0.9822553641378748</v>
       </c>
       <c r="D12">
-        <v>1.008530296697505</v>
+        <v>1.009877030417353</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.015158700991772</v>
+        <v>1.015911738798246</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043832733364136</v>
+        <v>1.044517334732969</v>
       </c>
       <c r="J12">
-        <v>1.011122753223103</v>
+        <v>1.012830168602235</v>
       </c>
       <c r="K12">
-        <v>1.023495874343</v>
+        <v>1.024817417374962</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.030001134712771</v>
+        <v>1.030740314845066</v>
       </c>
       <c r="N12">
-        <v>1.007651108094793</v>
+        <v>1.011199811028652</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.033135445383798</v>
+        <v>1.033719928080964</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.027753908638613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.028704046817687</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019188200740208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9810504948816969</v>
+        <v>0.9827593490910606</v>
       </c>
       <c r="D13">
-        <v>1.008915402831881</v>
+        <v>1.010194379973268</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.016292995467346</v>
+        <v>1.017012968931776</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04407519968105</v>
+        <v>1.044725830658019</v>
       </c>
       <c r="J13">
-        <v>1.01158341766798</v>
+        <v>1.013216357499326</v>
       </c>
       <c r="K13">
-        <v>1.02383030092276</v>
+        <v>1.025085456598789</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.031071556603331</v>
+        <v>1.031778362962663</v>
       </c>
       <c r="N13">
-        <v>1.007895184774183</v>
+        <v>1.01132864683262</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034259786126128</v>
+        <v>1.034818528754633</v>
       </c>
       <c r="Q13">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R13">
-        <v>1.027987846882669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028890800933685</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019262143673909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.982049472515077</v>
+        <v>0.9836425243621439</v>
       </c>
       <c r="D14">
-        <v>1.009565067024661</v>
+        <v>1.010742617905685</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.017366464559998</v>
+        <v>1.018036845903657</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044374796474028</v>
+        <v>1.044974343016116</v>
       </c>
       <c r="J14">
-        <v>1.012225314479374</v>
+        <v>1.013748641603813</v>
       </c>
       <c r="K14">
-        <v>1.024325562055285</v>
+        <v>1.025481455452908</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.031984690992341</v>
+        <v>1.032642979298423</v>
       </c>
       <c r="N14">
-        <v>1.008162244329167</v>
+        <v>1.011426210463982</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035155568294551</v>
+        <v>1.035675886006286</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.028339457175227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.029172359367147</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019352655473964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9825999920224009</v>
+        <v>0.9841322852156547</v>
       </c>
       <c r="D15">
-        <v>1.009925428589647</v>
+        <v>1.011049320697463</v>
       </c>
       <c r="E15">
         <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.017807331082329</v>
+        <v>1.018451426746009</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044523794415964</v>
+        <v>1.045096294495075</v>
       </c>
       <c r="J15">
-        <v>1.012559392556132</v>
+        <v>1.014025224270547</v>
       </c>
       <c r="K15">
-        <v>1.024591660777473</v>
+        <v>1.025695041411821</v>
       </c>
       <c r="L15">
         <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.032330956017613</v>
+        <v>1.032963524751738</v>
       </c>
       <c r="N15">
-        <v>1.008285182874881</v>
+        <v>1.011463335750629</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035466911904675</v>
+        <v>1.035966887427201</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.028533526369432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.029329863728518</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019399225479711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9855985379168603</v>
+        <v>0.9868190865417849</v>
       </c>
       <c r="D16">
-        <v>1.011895834524495</v>
+        <v>1.012738888606032</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.019655284822475</v>
+        <v>1.020162613597035</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045277569526125</v>
+        <v>1.045708489668391</v>
       </c>
       <c r="J16">
-        <v>1.014316769937127</v>
+        <v>1.015487108435262</v>
       </c>
       <c r="K16">
-        <v>1.026017520258891</v>
+        <v>1.026845871974636</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.033642836375046</v>
+        <v>1.034141486996571</v>
       </c>
       <c r="N16">
-        <v>1.008861882372863</v>
+        <v>1.011633034230446</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036464977836814</v>
+        <v>1.036859117287354</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.029544867533538</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.030147037213749</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019644819202369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9873829894513738</v>
+        <v>0.9884371998433596</v>
       </c>
       <c r="D17">
-        <v>1.013073761156137</v>
+        <v>1.013761682167306</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.020510264394548</v>
+        <v>1.020943637938054</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045699035250801</v>
+        <v>1.046051717288967</v>
       </c>
       <c r="J17">
-        <v>1.015334806507425</v>
+        <v>1.016347087512711</v>
       </c>
       <c r="K17">
-        <v>1.026856378370799</v>
+        <v>1.027532646333325</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.03416798377462</v>
+        <v>1.034594150960398</v>
       </c>
       <c r="N17">
-        <v>1.009167649448278</v>
+        <v>1.01174329185701</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036750608346515</v>
+        <v>1.037087489752127</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.030140586388183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.030635467779639</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019787460066448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9882391457651969</v>
+        <v>0.9892276628724052</v>
       </c>
       <c r="D18">
-        <v>1.013633604810109</v>
+        <v>1.014256059274129</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.020468091934257</v>
+        <v>1.02087079356328</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I18">
-        <v>1.045843380553823</v>
+        <v>1.04616285755383</v>
       </c>
       <c r="J18">
-        <v>1.015753947077038</v>
+        <v>1.016703905543307</v>
       </c>
       <c r="K18">
-        <v>1.027221082236094</v>
+        <v>1.027833169642986</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.033942631011369</v>
+        <v>1.034338738732642</v>
       </c>
       <c r="N18">
-        <v>1.009238778436179</v>
+        <v>1.011753205752327</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036333850180378</v>
+        <v>1.036647035529282</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.030386715504406</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.030835085546687</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019837801806966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9882046182283828</v>
+        <v>0.9892203632441662</v>
       </c>
       <c r="D19">
-        <v>1.013598718675786</v>
+        <v>1.014240938383512</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.019538425371895</v>
+        <v>1.019951057422258</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045714232545011</v>
+        <v>1.046043231770232</v>
       </c>
       <c r="J19">
-        <v>1.015583486577512</v>
+        <v>1.016559840975346</v>
       </c>
       <c r="K19">
-        <v>1.027123470310783</v>
+        <v>1.027755050290883</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.032965430351497</v>
+        <v>1.033371326279084</v>
       </c>
       <c r="N19">
-        <v>1.009082314120796</v>
+        <v>1.011643025099495</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.035234070930106</v>
+        <v>1.035555101205236</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.030324146059737</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03078692002531</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019794236433788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9856642795639057</v>
+        <v>0.9869642358379396</v>
       </c>
       <c r="D20">
-        <v>1.011879489513188</v>
+        <v>1.012778055454646</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.016223284247464</v>
+        <v>1.016758973948633</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044820287942021</v>
+        <v>1.045277544489025</v>
       </c>
       <c r="J20">
-        <v>1.013759227716593</v>
+        <v>1.015007080577993</v>
       </c>
       <c r="K20">
-        <v>1.025716619931514</v>
+        <v>1.02659987877641</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.029986741607986</v>
+        <v>1.030513401964978</v>
       </c>
       <c r="N20">
-        <v>1.008285247267707</v>
+        <v>1.011186307157811</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032346032512079</v>
+        <v>1.032762832559905</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.029333392437687</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.029974509421391</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019486590105345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9799900405413594</v>
+        <v>0.9819270571803665</v>
       </c>
       <c r="D21">
-        <v>1.008148379776431</v>
+        <v>1.009616098601127</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.012298348228541</v>
+        <v>1.01311563479857</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043330965044492</v>
+        <v>1.044075773977451</v>
       </c>
       <c r="J21">
-        <v>1.010348865068191</v>
+        <v>1.012200328624454</v>
       </c>
       <c r="K21">
-        <v>1.022977005703746</v>
+        <v>1.024417552807828</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.0270504113803</v>
+        <v>1.027852716094813</v>
       </c>
       <c r="N21">
-        <v>1.007102746316528</v>
+        <v>1.010861742103238</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.029980898502875</v>
+        <v>1.030615878048302</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.027399619131381</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.028435104077687</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019019360866965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.976367391714044</v>
+        <v>0.9787125489502355</v>
       </c>
       <c r="D22">
-        <v>1.005768615126399</v>
+        <v>1.007600340793048</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.009893201999874</v>
+        <v>1.010891354112806</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042376624253493</v>
+        <v>1.043305178195826</v>
       </c>
       <c r="J22">
-        <v>1.008181065075759</v>
+        <v>1.010416361495894</v>
       </c>
       <c r="K22">
-        <v>1.021226654312575</v>
+        <v>1.023022722229654</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.025271187690853</v>
+        <v>1.026250095391158</v>
       </c>
       <c r="N22">
-        <v>1.006355688505246</v>
+        <v>1.010652282832257</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028572739863299</v>
+        <v>1.029347492343712</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.026148383000468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.02743396035126</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018719889981265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9782817193113366</v>
+        <v>0.980390785742829</v>
       </c>
       <c r="D23">
-        <v>1.007020134787169</v>
+        <v>1.008645114108943</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.011166547010608</v>
+        <v>1.01205998142574</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042878514654496</v>
+        <v>1.043702510808332</v>
       </c>
       <c r="J23">
-        <v>1.009321586443166</v>
+        <v>1.011334863141451</v>
       </c>
       <c r="K23">
-        <v>1.022144172792211</v>
+        <v>1.023738343039171</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.026212226430708</v>
+        <v>1.027088886573457</v>
       </c>
       <c r="N23">
-        <v>1.006744406745389</v>
+        <v>1.010711386831721</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029317521126585</v>
+        <v>1.030011349490957</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.026787382667982</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.027929267662102</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018870233171096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.985657897187515</v>
+        <v>0.9869649218151755</v>
       </c>
       <c r="D24">
-        <v>1.011861209785676</v>
+        <v>1.012764815296141</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.016092744343226</v>
+        <v>1.016631274790291</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044791200728105</v>
+        <v>1.045250913629331</v>
       </c>
       <c r="J24">
-        <v>1.013719435755101</v>
+        <v>1.014974147096323</v>
       </c>
       <c r="K24">
-        <v>1.025683182599092</v>
+        <v>1.026571414322307</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.029843026702636</v>
+        <v>1.030372488600344</v>
       </c>
       <c r="N24">
-        <v>1.008250665295925</v>
+        <v>1.011160810291121</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.032191095662435</v>
+        <v>1.032610134034087</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.029282102627869</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.029924077710793</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019472150557972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9938629466806637</v>
+        <v>0.9945649786461207</v>
       </c>
       <c r="D25">
-        <v>1.017262832300065</v>
+        <v>1.017562113521644</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.021621153543513</v>
+        <v>1.021890950702316</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046861013194444</v>
+        <v>1.047017222590528</v>
       </c>
       <c r="J25">
-        <v>1.018598627121543</v>
+        <v>1.019276647632951</v>
       </c>
       <c r="K25">
-        <v>1.029598947793332</v>
+        <v>1.029893783057319</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.033892850854961</v>
+        <v>1.034158683206928</v>
       </c>
       <c r="N25">
-        <v>1.009921749285164</v>
+        <v>1.012271365350956</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035396290142717</v>
+        <v>1.035606680098138</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.032047903372066</v>
+        <v>1.032269987602528</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020189508762756</v>
       </c>
     </row>
   </sheetData>
